--- a/examples/table_examples.xlsx
+++ b/examples/table_examples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="column_specs" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="39">
   <si>
     <t xml:space="preserve">Possibly column types</t>
   </si>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">fund_to|float</t>
+    <t xml:space="preserve">fund_to|band</t>
   </si>
   <si>
     <t xml:space="preserve">value|float</t>
@@ -145,18 +145,16 @@
   <si>
     <t xml:space="preserve">IJKLM</t>
   </si>
-  <si>
-    <t xml:space="preserve">fund_to|band</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -245,7 +243,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,6 +265,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4489,7 +4491,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4861,7 +4863,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4959,8 +4961,8 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4987,7 +4989,7 @@
       <c r="B2" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="6" t="n">
         <f aca="false">ROUND(LN(B2),2)*LEN(A2)</f>
         <v>27.63</v>
       </c>
@@ -4999,7 +5001,7 @@
       <c r="B3" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="6" t="n">
         <f aca="false">ROUND(LN(B3),2)*LEN(A3)</f>
         <v>30.39</v>
       </c>
@@ -5011,7 +5013,7 @@
       <c r="B4" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="6" t="n">
         <f aca="false">ROUND(LN(B4),2)*LEN(A4)</f>
         <v>32.46</v>
       </c>
@@ -5023,7 +5025,7 @@
       <c r="B5" s="0" t="n">
         <v>125000</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="6" t="n">
         <f aca="false">ROUND(LN(B5),2)*LEN(A5)</f>
         <v>35.22</v>
       </c>
@@ -5035,7 +5037,7 @@
       <c r="B6" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="6" t="n">
         <f aca="false">ROUND(LN(B6),2)*LEN(A6)</f>
         <v>37.29</v>
       </c>
@@ -5047,7 +5049,7 @@
       <c r="B7" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="6" t="n">
         <f aca="false">ROUND(LN(B7),2)*LEN(A7)</f>
         <v>41.46</v>
       </c>
@@ -5059,7 +5061,7 @@
       <c r="B8" s="0" t="n">
         <v>99999999999</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="6" t="n">
         <f aca="false">ROUND(LN(B8),2)*LEN(A8)</f>
         <v>75.99</v>
       </c>
@@ -5071,7 +5073,7 @@
       <c r="B9" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="6" t="n">
         <f aca="false">ROUND(LN(B9),2)*LEN(A9)</f>
         <v>36.84</v>
       </c>
@@ -5083,7 +5085,7 @@
       <c r="B10" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6" t="n">
         <f aca="false">ROUND(LN(B10),2)*LEN(A10)</f>
         <v>40.52</v>
       </c>
@@ -5095,7 +5097,7 @@
       <c r="B11" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="6" t="n">
         <f aca="false">ROUND(LN(B11),2)*LEN(A11)</f>
         <v>43.28</v>
       </c>
@@ -5107,7 +5109,7 @@
       <c r="B12" s="0" t="n">
         <v>125000</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="6" t="n">
         <f aca="false">ROUND(LN(B12),2)*LEN(A12)</f>
         <v>46.96</v>
       </c>
@@ -5119,7 +5121,7 @@
       <c r="B13" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="6" t="n">
         <f aca="false">ROUND(LN(B13),2)*LEN(A13)</f>
         <v>49.72</v>
       </c>
@@ -5131,7 +5133,7 @@
       <c r="B14" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="6" t="n">
         <f aca="false">ROUND(LN(B14),2)*LEN(A14)</f>
         <v>55.28</v>
       </c>
@@ -5143,7 +5145,7 @@
       <c r="B15" s="0" t="n">
         <v>99999999999</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="6" t="n">
         <f aca="false">ROUND(LN(B15),2)*LEN(A15)</f>
         <v>101.32</v>
       </c>
@@ -5155,7 +5157,7 @@
       <c r="B16" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="6" t="n">
         <f aca="false">ROUND(LN(B16),2)*LEN(A16)</f>
         <v>46.05</v>
       </c>
@@ -5167,7 +5169,7 @@
       <c r="B17" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="6" t="n">
         <f aca="false">ROUND(LN(B17),2)*LEN(A17)</f>
         <v>50.65</v>
       </c>
@@ -5179,7 +5181,7 @@
       <c r="B18" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="6" t="n">
         <f aca="false">ROUND(LN(B18),2)*LEN(A18)</f>
         <v>54.1</v>
       </c>
@@ -5191,7 +5193,7 @@
       <c r="B19" s="0" t="n">
         <v>125000</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="6" t="n">
         <f aca="false">ROUND(LN(B19),2)*LEN(A19)</f>
         <v>58.7</v>
       </c>
@@ -5203,7 +5205,7 @@
       <c r="B20" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="6" t="n">
         <f aca="false">ROUND(LN(B20),2)*LEN(A20)</f>
         <v>62.15</v>
       </c>
@@ -5215,7 +5217,7 @@
       <c r="B21" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="6" t="n">
         <f aca="false">ROUND(LN(B21),2)*LEN(A21)</f>
         <v>69.1</v>
       </c>
@@ -5227,7 +5229,7 @@
       <c r="B22" s="0" t="n">
         <v>99999999999</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="6" t="n">
         <f aca="false">ROUND(LN(B22),2)*LEN(A22)</f>
         <v>126.65</v>
       </c>
@@ -5250,8 +5252,8 @@
   </sheetPr>
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5268,7 +5270,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -5284,9 +5286,9 @@
       <c r="C2" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <f aca="false">ROUND(LN(C2),2)*LEN(A2)*(B2-2022)/10</f>
-        <v>2.763</v>
+      <c r="D2" s="6" t="n">
+        <f aca="false">ROUND((LN(C2))*LEN(A2)*(B2-2022)/10,2)</f>
+        <v>2.76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,9 +5301,9 @@
       <c r="C3" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <f aca="false">ROUND(LN(C3),2)*LEN(A3)*(B3-2022)/10</f>
-        <v>3.039</v>
+      <c r="D3" s="6" t="n">
+        <f aca="false">ROUND((LN(C3))*LEN(A3)*(B3-2022)/10,2)</f>
+        <v>3.04</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5314,9 +5316,9 @@
       <c r="C4" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <f aca="false">ROUND(LN(C4),2)*LEN(A4)*(B4-2022)/10</f>
-        <v>3.246</v>
+      <c r="D4" s="6" t="n">
+        <f aca="false">ROUND((LN(C4))*LEN(A4)*(B4-2022)/10,2)</f>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5329,9 +5331,9 @@
       <c r="C5" s="0" t="n">
         <v>125000</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <f aca="false">ROUND(LN(C5),2)*LEN(A5)*(B5-2022)/10</f>
-        <v>3.522</v>
+      <c r="D5" s="6" t="n">
+        <f aca="false">ROUND((LN(C5))*LEN(A5)*(B5-2022)/10,2)</f>
+        <v>3.52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,9 +5346,9 @@
       <c r="C6" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <f aca="false">ROUND(LN(C6),2)*LEN(A6)*(B6-2022)/10</f>
-        <v>3.729</v>
+      <c r="D6" s="6" t="n">
+        <f aca="false">ROUND((LN(C6))*LEN(A6)*(B6-2022)/10,2)</f>
+        <v>3.73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,9 +5361,9 @@
       <c r="C7" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <f aca="false">ROUND(LN(C7),2)*LEN(A7)*(B7-2022)/10</f>
-        <v>4.146</v>
+      <c r="D7" s="6" t="n">
+        <f aca="false">ROUND((LN(C7))*LEN(A7)*(B7-2022)/10,2)</f>
+        <v>4.14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,9 +5376,9 @@
       <c r="C8" s="0" t="n">
         <v>99999999999</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <f aca="false">ROUND(LN(C8),2)*LEN(A8)*(B8-2022)/10</f>
-        <v>7.599</v>
+      <c r="D8" s="6" t="n">
+        <f aca="false">ROUND((LN(C8))*LEN(A8)*(B8-2022)/10,2)</f>
+        <v>7.6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,9 +5391,9 @@
       <c r="C9" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <f aca="false">ROUND(LN(C9),2)*LEN(A9)*(B9-2022)/10</f>
-        <v>3.684</v>
+      <c r="D9" s="6" t="n">
+        <f aca="false">ROUND((LN(C9))*LEN(A9)*(B9-2022)/10,2)</f>
+        <v>3.68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5404,9 +5406,9 @@
       <c r="C10" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <f aca="false">ROUND(LN(C10),2)*LEN(A10)*(B10-2022)/10</f>
-        <v>4.052</v>
+      <c r="D10" s="6" t="n">
+        <f aca="false">ROUND((LN(C10))*LEN(A10)*(B10-2022)/10,2)</f>
+        <v>4.05</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,9 +5421,9 @@
       <c r="C11" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <f aca="false">ROUND(LN(C11),2)*LEN(A11)*(B11-2022)/10</f>
-        <v>4.328</v>
+      <c r="D11" s="6" t="n">
+        <f aca="false">ROUND((LN(C11))*LEN(A11)*(B11-2022)/10,2)</f>
+        <v>4.33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5434,9 +5436,9 @@
       <c r="C12" s="0" t="n">
         <v>125000</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <f aca="false">ROUND(LN(C12),2)*LEN(A12)*(B12-2022)/10</f>
-        <v>4.696</v>
+      <c r="D12" s="6" t="n">
+        <f aca="false">ROUND((LN(C12))*LEN(A12)*(B12-2022)/10,2)</f>
+        <v>4.69</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5449,9 +5451,9 @@
       <c r="C13" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <f aca="false">ROUND(LN(C13),2)*LEN(A13)*(B13-2022)/10</f>
-        <v>4.972</v>
+      <c r="D13" s="6" t="n">
+        <f aca="false">ROUND((LN(C13))*LEN(A13)*(B13-2022)/10,2)</f>
+        <v>4.97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,9 +5466,9 @@
       <c r="C14" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <f aca="false">ROUND(LN(C14),2)*LEN(A14)*(B14-2022)/10</f>
-        <v>5.528</v>
+      <c r="D14" s="6" t="n">
+        <f aca="false">ROUND((LN(C14))*LEN(A14)*(B14-2022)/10,2)</f>
+        <v>5.53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,9 +5481,9 @@
       <c r="C15" s="0" t="n">
         <v>99999999999</v>
       </c>
-      <c r="D15" s="4" t="n">
-        <f aca="false">ROUND(LN(C15),2)*LEN(A15)*(B15-2022)/10</f>
-        <v>10.132</v>
+      <c r="D15" s="6" t="n">
+        <f aca="false">ROUND((LN(C15))*LEN(A15)*(B15-2022)/10,2)</f>
+        <v>10.13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5494,9 +5496,9 @@
       <c r="C16" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D16" s="4" t="n">
-        <f aca="false">ROUND(LN(C16),2)*LEN(A16)*(B16-2022)/10</f>
-        <v>4.605</v>
+      <c r="D16" s="6" t="n">
+        <f aca="false">ROUND((LN(C16))*LEN(A16)*(B16-2022)/10,2)</f>
+        <v>4.61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5509,9 +5511,9 @@
       <c r="C17" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="D17" s="4" t="n">
-        <f aca="false">ROUND(LN(C17),2)*LEN(A17)*(B17-2022)/10</f>
-        <v>5.065</v>
+      <c r="D17" s="6" t="n">
+        <f aca="false">ROUND((LN(C17))*LEN(A17)*(B17-2022)/10,2)</f>
+        <v>5.06</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5524,8 +5526,8 @@
       <c r="C18" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <f aca="false">ROUND(LN(C18),2)*LEN(A18)*(B18-2022)/10</f>
+      <c r="D18" s="6" t="n">
+        <f aca="false">ROUND((LN(C18))*LEN(A18)*(B18-2022)/10,2)</f>
         <v>5.41</v>
       </c>
     </row>
@@ -5539,8 +5541,8 @@
       <c r="C19" s="0" t="n">
         <v>125000</v>
       </c>
-      <c r="D19" s="4" t="n">
-        <f aca="false">ROUND(LN(C19),2)*LEN(A19)*(B19-2022)/10</f>
+      <c r="D19" s="6" t="n">
+        <f aca="false">ROUND((LN(C19))*LEN(A19)*(B19-2022)/10,2)</f>
         <v>5.87</v>
       </c>
     </row>
@@ -5554,9 +5556,9 @@
       <c r="C20" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="D20" s="4" t="n">
-        <f aca="false">ROUND(LN(C20),2)*LEN(A20)*(B20-2022)/10</f>
-        <v>6.215</v>
+      <c r="D20" s="6" t="n">
+        <f aca="false">ROUND((LN(C20))*LEN(A20)*(B20-2022)/10,2)</f>
+        <v>6.21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5569,8 +5571,8 @@
       <c r="C21" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D21" s="4" t="n">
-        <f aca="false">ROUND(LN(C21),2)*LEN(A21)*(B21-2022)/10</f>
+      <c r="D21" s="6" t="n">
+        <f aca="false">ROUND((LN(C21))*LEN(A21)*(B21-2022)/10,2)</f>
         <v>6.91</v>
       </c>
     </row>
@@ -5584,9 +5586,9 @@
       <c r="C22" s="0" t="n">
         <v>99999999999</v>
       </c>
-      <c r="D22" s="4" t="n">
-        <f aca="false">ROUND(LN(C22),2)*LEN(A22)*(B22-2022)/10</f>
-        <v>12.665</v>
+      <c r="D22" s="6" t="n">
+        <f aca="false">ROUND((LN(C22))*LEN(A22)*(B22-2022)/10,2)</f>
+        <v>12.66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,9 +5602,9 @@
       <c r="C23" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D23" s="4" t="n">
-        <f aca="false">ROUND(LN(C23),2)*LEN(A23)*(B23-2022)/10</f>
-        <v>5.526</v>
+      <c r="D23" s="6" t="n">
+        <f aca="false">ROUND((LN(C23))*LEN(A23)*(B23-2022)/10,2)</f>
+        <v>5.53</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5616,9 +5618,9 @@
       <c r="C24" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <f aca="false">ROUND(LN(C24),2)*LEN(A24)*(B24-2022)/10</f>
-        <v>6.078</v>
+      <c r="D24" s="6" t="n">
+        <f aca="false">ROUND((LN(C24))*LEN(A24)*(B24-2022)/10,2)</f>
+        <v>6.08</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,9 +5634,9 @@
       <c r="C25" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <f aca="false">ROUND(LN(C25),2)*LEN(A25)*(B25-2022)/10</f>
-        <v>6.492</v>
+      <c r="D25" s="6" t="n">
+        <f aca="false">ROUND((LN(C25))*LEN(A25)*(B25-2022)/10,2)</f>
+        <v>6.49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,9 +5650,9 @@
       <c r="C26" s="0" t="n">
         <v>125000</v>
       </c>
-      <c r="D26" s="4" t="n">
-        <f aca="false">ROUND(LN(C26),2)*LEN(A26)*(B26-2022)/10</f>
-        <v>7.044</v>
+      <c r="D26" s="6" t="n">
+        <f aca="false">ROUND((LN(C26))*LEN(A26)*(B26-2022)/10,2)</f>
+        <v>7.04</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,9 +5666,9 @@
       <c r="C27" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="D27" s="4" t="n">
-        <f aca="false">ROUND(LN(C27),2)*LEN(A27)*(B27-2022)/10</f>
-        <v>7.458</v>
+      <c r="D27" s="6" t="n">
+        <f aca="false">ROUND((LN(C27))*LEN(A27)*(B27-2022)/10,2)</f>
+        <v>7.46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,9 +5682,9 @@
       <c r="C28" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D28" s="4" t="n">
-        <f aca="false">ROUND(LN(C28),2)*LEN(A28)*(B28-2022)/10</f>
-        <v>8.292</v>
+      <c r="D28" s="6" t="n">
+        <f aca="false">ROUND((LN(C28))*LEN(A28)*(B28-2022)/10,2)</f>
+        <v>8.29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,9 +5698,9 @@
       <c r="C29" s="0" t="n">
         <v>99999999999</v>
       </c>
-      <c r="D29" s="4" t="n">
-        <f aca="false">ROUND(LN(C29),2)*LEN(A29)*(B29-2022)/10</f>
-        <v>15.198</v>
+      <c r="D29" s="6" t="n">
+        <f aca="false">ROUND((LN(C29))*LEN(A29)*(B29-2022)/10,2)</f>
+        <v>15.2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,9 +5714,9 @@
       <c r="C30" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D30" s="4" t="n">
-        <f aca="false">ROUND(LN(C30),2)*LEN(A30)*(B30-2022)/10</f>
-        <v>7.368</v>
+      <c r="D30" s="6" t="n">
+        <f aca="false">ROUND((LN(C30))*LEN(A30)*(B30-2022)/10,2)</f>
+        <v>7.37</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,9 +5730,9 @@
       <c r="C31" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="D31" s="4" t="n">
-        <f aca="false">ROUND(LN(C31),2)*LEN(A31)*(B31-2022)/10</f>
-        <v>8.104</v>
+      <c r="D31" s="6" t="n">
+        <f aca="false">ROUND((LN(C31))*LEN(A31)*(B31-2022)/10,2)</f>
+        <v>8.1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,9 +5746,9 @@
       <c r="C32" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D32" s="4" t="n">
-        <f aca="false">ROUND(LN(C32),2)*LEN(A32)*(B32-2022)/10</f>
-        <v>8.656</v>
+      <c r="D32" s="6" t="n">
+        <f aca="false">ROUND((LN(C32))*LEN(A32)*(B32-2022)/10,2)</f>
+        <v>8.66</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,9 +5762,9 @@
       <c r="C33" s="0" t="n">
         <v>125000</v>
       </c>
-      <c r="D33" s="4" t="n">
-        <f aca="false">ROUND(LN(C33),2)*LEN(A33)*(B33-2022)/10</f>
-        <v>9.392</v>
+      <c r="D33" s="6" t="n">
+        <f aca="false">ROUND((LN(C33))*LEN(A33)*(B33-2022)/10,2)</f>
+        <v>9.39</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5776,9 +5778,9 @@
       <c r="C34" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="D34" s="4" t="n">
-        <f aca="false">ROUND(LN(C34),2)*LEN(A34)*(B34-2022)/10</f>
-        <v>9.944</v>
+      <c r="D34" s="6" t="n">
+        <f aca="false">ROUND((LN(C34))*LEN(A34)*(B34-2022)/10,2)</f>
+        <v>9.94</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,9 +5794,9 @@
       <c r="C35" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D35" s="4" t="n">
-        <f aca="false">ROUND(LN(C35),2)*LEN(A35)*(B35-2022)/10</f>
-        <v>11.056</v>
+      <c r="D35" s="6" t="n">
+        <f aca="false">ROUND((LN(C35))*LEN(A35)*(B35-2022)/10,2)</f>
+        <v>11.05</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5808,9 +5810,9 @@
       <c r="C36" s="0" t="n">
         <v>99999999999</v>
       </c>
-      <c r="D36" s="4" t="n">
-        <f aca="false">ROUND(LN(C36),2)*LEN(A36)*(B36-2022)/10</f>
-        <v>20.264</v>
+      <c r="D36" s="6" t="n">
+        <f aca="false">ROUND((LN(C36))*LEN(A36)*(B36-2022)/10,2)</f>
+        <v>20.26</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,8 +5826,8 @@
       <c r="C37" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D37" s="4" t="n">
-        <f aca="false">ROUND(LN(C37),2)*LEN(A37)*(B37-2022)/10</f>
+      <c r="D37" s="6" t="n">
+        <f aca="false">ROUND((LN(C37))*LEN(A37)*(B37-2022)/10,2)</f>
         <v>9.21</v>
       </c>
     </row>
@@ -5840,8 +5842,8 @@
       <c r="C38" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="D38" s="4" t="n">
-        <f aca="false">ROUND(LN(C38),2)*LEN(A38)*(B38-2022)/10</f>
+      <c r="D38" s="6" t="n">
+        <f aca="false">ROUND((LN(C38))*LEN(A38)*(B38-2022)/10,2)</f>
         <v>10.13</v>
       </c>
     </row>
@@ -5856,8 +5858,8 @@
       <c r="C39" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D39" s="4" t="n">
-        <f aca="false">ROUND(LN(C39),2)*LEN(A39)*(B39-2022)/10</f>
+      <c r="D39" s="6" t="n">
+        <f aca="false">ROUND((LN(C39))*LEN(A39)*(B39-2022)/10,2)</f>
         <v>10.82</v>
       </c>
     </row>
@@ -5872,8 +5874,8 @@
       <c r="C40" s="0" t="n">
         <v>125000</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <f aca="false">ROUND(LN(C40),2)*LEN(A40)*(B40-2022)/10</f>
+      <c r="D40" s="6" t="n">
+        <f aca="false">ROUND((LN(C40))*LEN(A40)*(B40-2022)/10,2)</f>
         <v>11.74</v>
       </c>
     </row>
@@ -5888,8 +5890,8 @@
       <c r="C41" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <f aca="false">ROUND(LN(C41),2)*LEN(A41)*(B41-2022)/10</f>
+      <c r="D41" s="6" t="n">
+        <f aca="false">ROUND((LN(C41))*LEN(A41)*(B41-2022)/10,2)</f>
         <v>12.43</v>
       </c>
     </row>
@@ -5904,8 +5906,8 @@
       <c r="C42" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D42" s="4" t="n">
-        <f aca="false">ROUND(LN(C42),2)*LEN(A42)*(B42-2022)/10</f>
+      <c r="D42" s="6" t="n">
+        <f aca="false">ROUND((LN(C42))*LEN(A42)*(B42-2022)/10,2)</f>
         <v>13.82</v>
       </c>
     </row>
@@ -5920,8 +5922,8 @@
       <c r="C43" s="0" t="n">
         <v>99999999999</v>
       </c>
-      <c r="D43" s="4" t="n">
-        <f aca="false">ROUND(LN(C43),2)*LEN(A43)*(B43-2022)/10</f>
+      <c r="D43" s="6" t="n">
+        <f aca="false">ROUND((LN(C43))*LEN(A43)*(B43-2022)/10,2)</f>
         <v>25.33</v>
       </c>
     </row>
@@ -5936,9 +5938,9 @@
       <c r="C44" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D44" s="4" t="n">
-        <f aca="false">ROUND(LN(C44),2)*LEN(A44)*(B44-2022)/10</f>
-        <v>8.289</v>
+      <c r="D44" s="6" t="n">
+        <f aca="false">ROUND((LN(C44))*LEN(A44)*(B44-2022)/10,2)</f>
+        <v>8.29</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5952,9 +5954,9 @@
       <c r="C45" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="D45" s="4" t="n">
-        <f aca="false">ROUND(LN(C45),2)*LEN(A45)*(B45-2022)/10</f>
-        <v>9.117</v>
+      <c r="D45" s="6" t="n">
+        <f aca="false">ROUND((LN(C45))*LEN(A45)*(B45-2022)/10,2)</f>
+        <v>9.11</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5968,9 +5970,9 @@
       <c r="C46" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D46" s="4" t="n">
-        <f aca="false">ROUND(LN(C46),2)*LEN(A46)*(B46-2022)/10</f>
-        <v>9.738</v>
+      <c r="D46" s="6" t="n">
+        <f aca="false">ROUND((LN(C46))*LEN(A46)*(B46-2022)/10,2)</f>
+        <v>9.74</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,9 +5986,9 @@
       <c r="C47" s="0" t="n">
         <v>125000</v>
       </c>
-      <c r="D47" s="4" t="n">
-        <f aca="false">ROUND(LN(C47),2)*LEN(A47)*(B47-2022)/10</f>
-        <v>10.566</v>
+      <c r="D47" s="6" t="n">
+        <f aca="false">ROUND((LN(C47))*LEN(A47)*(B47-2022)/10,2)</f>
+        <v>10.56</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,9 +6002,9 @@
       <c r="C48" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="D48" s="4" t="n">
-        <f aca="false">ROUND(LN(C48),2)*LEN(A48)*(B48-2022)/10</f>
-        <v>11.187</v>
+      <c r="D48" s="6" t="n">
+        <f aca="false">ROUND((LN(C48))*LEN(A48)*(B48-2022)/10,2)</f>
+        <v>11.19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,9 +6018,9 @@
       <c r="C49" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D49" s="4" t="n">
-        <f aca="false">ROUND(LN(C49),2)*LEN(A49)*(B49-2022)/10</f>
-        <v>12.438</v>
+      <c r="D49" s="6" t="n">
+        <f aca="false">ROUND((LN(C49))*LEN(A49)*(B49-2022)/10,2)</f>
+        <v>12.43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,9 +6034,9 @@
       <c r="C50" s="0" t="n">
         <v>99999999999</v>
       </c>
-      <c r="D50" s="4" t="n">
-        <f aca="false">ROUND(LN(C50),2)*LEN(A50)*(B50-2022)/10</f>
-        <v>22.797</v>
+      <c r="D50" s="6" t="n">
+        <f aca="false">ROUND((LN(C50))*LEN(A50)*(B50-2022)/10,2)</f>
+        <v>22.8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,9 +6050,9 @@
       <c r="C51" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D51" s="4" t="n">
-        <f aca="false">ROUND(LN(C51),2)*LEN(A51)*(B51-2022)/10</f>
-        <v>11.052</v>
+      <c r="D51" s="6" t="n">
+        <f aca="false">ROUND((LN(C51))*LEN(A51)*(B51-2022)/10,2)</f>
+        <v>11.05</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6064,9 +6066,9 @@
       <c r="C52" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="D52" s="4" t="n">
-        <f aca="false">ROUND(LN(C52),2)*LEN(A52)*(B52-2022)/10</f>
-        <v>12.156</v>
+      <c r="D52" s="6" t="n">
+        <f aca="false">ROUND((LN(C52))*LEN(A52)*(B52-2022)/10,2)</f>
+        <v>12.15</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,9 +6082,9 @@
       <c r="C53" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D53" s="4" t="n">
-        <f aca="false">ROUND(LN(C53),2)*LEN(A53)*(B53-2022)/10</f>
-        <v>12.984</v>
+      <c r="D53" s="6" t="n">
+        <f aca="false">ROUND((LN(C53))*LEN(A53)*(B53-2022)/10,2)</f>
+        <v>12.98</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6096,9 +6098,9 @@
       <c r="C54" s="0" t="n">
         <v>125000</v>
       </c>
-      <c r="D54" s="4" t="n">
-        <f aca="false">ROUND(LN(C54),2)*LEN(A54)*(B54-2022)/10</f>
-        <v>14.088</v>
+      <c r="D54" s="6" t="n">
+        <f aca="false">ROUND((LN(C54))*LEN(A54)*(B54-2022)/10,2)</f>
+        <v>14.08</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6112,9 +6114,9 @@
       <c r="C55" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="D55" s="4" t="n">
-        <f aca="false">ROUND(LN(C55),2)*LEN(A55)*(B55-2022)/10</f>
-        <v>14.916</v>
+      <c r="D55" s="6" t="n">
+        <f aca="false">ROUND((LN(C55))*LEN(A55)*(B55-2022)/10,2)</f>
+        <v>14.92</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6128,9 +6130,9 @@
       <c r="C56" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D56" s="4" t="n">
-        <f aca="false">ROUND(LN(C56),2)*LEN(A56)*(B56-2022)/10</f>
-        <v>16.584</v>
+      <c r="D56" s="6" t="n">
+        <f aca="false">ROUND((LN(C56))*LEN(A56)*(B56-2022)/10,2)</f>
+        <v>16.58</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6144,9 +6146,9 @@
       <c r="C57" s="0" t="n">
         <v>99999999999</v>
       </c>
-      <c r="D57" s="4" t="n">
-        <f aca="false">ROUND(LN(C57),2)*LEN(A57)*(B57-2022)/10</f>
-        <v>30.396</v>
+      <c r="D57" s="6" t="n">
+        <f aca="false">ROUND((LN(C57))*LEN(A57)*(B57-2022)/10,2)</f>
+        <v>30.39</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6160,9 +6162,9 @@
       <c r="C58" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D58" s="4" t="n">
-        <f aca="false">ROUND(LN(C58),2)*LEN(A58)*(B58-2022)/10</f>
-        <v>13.815</v>
+      <c r="D58" s="6" t="n">
+        <f aca="false">ROUND((LN(C58))*LEN(A58)*(B58-2022)/10,2)</f>
+        <v>13.82</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6176,9 +6178,9 @@
       <c r="C59" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="D59" s="4" t="n">
-        <f aca="false">ROUND(LN(C59),2)*LEN(A59)*(B59-2022)/10</f>
-        <v>15.195</v>
+      <c r="D59" s="6" t="n">
+        <f aca="false">ROUND((LN(C59))*LEN(A59)*(B59-2022)/10,2)</f>
+        <v>15.19</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,8 +6194,8 @@
       <c r="C60" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D60" s="4" t="n">
-        <f aca="false">ROUND(LN(C60),2)*LEN(A60)*(B60-2022)/10</f>
+      <c r="D60" s="6" t="n">
+        <f aca="false">ROUND((LN(C60))*LEN(A60)*(B60-2022)/10,2)</f>
         <v>16.23</v>
       </c>
     </row>
@@ -6208,9 +6210,9 @@
       <c r="C61" s="0" t="n">
         <v>125000</v>
       </c>
-      <c r="D61" s="4" t="n">
-        <f aca="false">ROUND(LN(C61),2)*LEN(A61)*(B61-2022)/10</f>
-        <v>17.61</v>
+      <c r="D61" s="6" t="n">
+        <f aca="false">ROUND((LN(C61))*LEN(A61)*(B61-2022)/10,2)</f>
+        <v>17.6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6224,9 +6226,9 @@
       <c r="C62" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="D62" s="4" t="n">
-        <f aca="false">ROUND(LN(C62),2)*LEN(A62)*(B62-2022)/10</f>
-        <v>18.645</v>
+      <c r="D62" s="6" t="n">
+        <f aca="false">ROUND((LN(C62))*LEN(A62)*(B62-2022)/10,2)</f>
+        <v>18.64</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6240,9 +6242,9 @@
       <c r="C63" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D63" s="4" t="n">
-        <f aca="false">ROUND(LN(C63),2)*LEN(A63)*(B63-2022)/10</f>
-        <v>20.73</v>
+      <c r="D63" s="6" t="n">
+        <f aca="false">ROUND((LN(C63))*LEN(A63)*(B63-2022)/10,2)</f>
+        <v>20.72</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,9 +6258,9 @@
       <c r="C64" s="0" t="n">
         <v>99999999999</v>
       </c>
-      <c r="D64" s="4" t="n">
-        <f aca="false">ROUND(LN(C64),2)*LEN(A64)*(B64-2022)/10</f>
-        <v>37.995</v>
+      <c r="D64" s="6" t="n">
+        <f aca="false">ROUND((LN(C64))*LEN(A64)*(B64-2022)/10,2)</f>
+        <v>37.99</v>
       </c>
     </row>
   </sheetData>
